--- a/тесткейсы.xlsx
+++ b/тесткейсы.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>V1.0</t>
   </si>
@@ -96,14 +96,6 @@
     <t>1.3</t>
   </si>
   <si>
-    <t>Удаление задачи</t>
-  </si>
-  <si>
-    <t>1. Перейти на форму "Список задач"
-2. На форме выбрать одну из задач
-3. Нажать на кнопку удаления задачи</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -117,32 +109,6 @@
   </si>
   <si>
     <t>Существует список задач</t>
-  </si>
-  <si>
-    <t>Задача удаляется, список задач обновляется</t>
-  </si>
-  <si>
-    <t>Удаление последней задачи</t>
-  </si>
-  <si>
-    <t>В списке одна задача</t>
-  </si>
-  <si>
-    <t>1. Перейти на форму "Список задач"
-2. На форме выбрать задачу
-3. Нажать на кнопку удаления задачи</t>
-  </si>
-  <si>
-    <t>Задача удалится, будет показан пустой список задач</t>
-  </si>
-  <si>
-    <t>Список задач пуст</t>
-  </si>
-  <si>
-    <t>Перейти на форму "Список задач"</t>
-  </si>
-  <si>
-    <t>Удаление невозможно, показан пустой список задач</t>
   </si>
   <si>
     <t>Удаление сотрудника</t>
@@ -177,6 +143,64 @@
   </si>
   <si>
     <t>Удаление невозможно, показан пустой список сотрудников</t>
+  </si>
+  <si>
+    <t>Удаление проекта</t>
+  </si>
+  <si>
+    <t>Удаление последнего проекта</t>
+  </si>
+  <si>
+    <t>Существует список проектов</t>
+  </si>
+  <si>
+    <t>В списке один  проект</t>
+  </si>
+  <si>
+    <t>Список проектов пуст</t>
+  </si>
+  <si>
+    <t>1. Перейти на форму "Список проетов"
+2. На форме выбрать один из проетов
+3. Нажать на кнопку удаления проета</t>
+  </si>
+  <si>
+    <t>1. Перейти на форму "Список проетов"
+2. На форме выбрать проект
+3. Нажать на кнопку удаления проета</t>
+  </si>
+  <si>
+    <t>Перейти на форму "Список проетов"</t>
+  </si>
+  <si>
+    <t>Проект удаляется, список проетов обновляется</t>
+  </si>
+  <si>
+    <t>Проект удалится, будет показан пустой список проектов</t>
+  </si>
+  <si>
+    <t>Удаление невозможно, показан пустой список проетов</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Не изменение сотрудников при удалении проета</t>
+  </si>
+  <si>
+    <t>Удаление проета</t>
+  </si>
+  <si>
+    <t>Проект удаляется, список проетов обновляется, список сотрудников остается неизменным</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>Не изменение задач при удалении проета</t>
+  </si>
+  <si>
+    <t>Проект удаляется, список проетов обновляется, список задач остается неизменным</t>
   </si>
 </sst>
 </file>
@@ -267,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -385,15 +409,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -430,11 +445,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" applyFont="0" applyBorder="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" applyFont="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -478,16 +493,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,7 +563,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -556,20 +571,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -910,13 +919,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P2671"/>
+  <dimension ref="A1:P2672"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="82" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -959,19 +968,19 @@
       <c r="C2" s="5"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
     </row>
     <row r="3" spans="1:16" s="20" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
@@ -1028,7 +1037,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="23"/>
@@ -1050,16 +1059,16 @@
         <v>13</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="35"/>
@@ -1078,16 +1087,16 @@
         <v>21</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="35"/>
@@ -1106,16 +1115,16 @@
         <v>22</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="35"/>
@@ -1129,89 +1138,99 @@
       <c r="O7" s="35"/>
       <c r="P7" s="35"/>
     </row>
-    <row r="8" spans="1:16" s="49" customFormat="1" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-    </row>
-    <row r="9" spans="1:16" s="32" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
-        <v>25</v>
+    <row r="8" spans="1:16" s="32" customFormat="1" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="45" t="s">
+        <v>49</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>38</v>
+      <c r="B8" s="44" t="s">
+        <v>50</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-    </row>
-    <row r="10" spans="1:16" s="32" customFormat="1" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
-        <v>26</v>
+      <c r="C8" s="33" t="s">
+        <v>40</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>38</v>
+      <c r="D8" s="12" t="s">
+        <v>43</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="E8" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+    </row>
+    <row r="9" spans="1:16" s="32" customFormat="1" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+    </row>
+    <row r="10" spans="1:16" s="32" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+    </row>
+    <row r="11" spans="1:16" s="32" customFormat="1" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-    </row>
-    <row r="11" spans="1:16" s="32" customFormat="1" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>44</v>
+      <c r="E11" s="38" t="s">
+        <v>30</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="35"/>
@@ -1225,21 +1244,21 @@
       <c r="O11" s="35"/>
       <c r="P11" s="35"/>
     </row>
-    <row r="12" spans="1:16" s="32" customFormat="1" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43" t="s">
-        <v>28</v>
+    <row r="12" spans="1:16" s="32" customFormat="1" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22" t="s">
+        <v>25</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>38</v>
+      <c r="B12" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="35"/>
@@ -1253,8 +1272,33 @@
       <c r="O12" s="35"/>
       <c r="P12" s="35"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D13" s="40"/>
+    <row r="13" spans="1:16" s="32" customFormat="1" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D14" s="40"/>
@@ -9228,15 +9272,17 @@
       <c r="D2670" s="40"/>
     </row>
     <row r="2671" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D2671" s="41"/>
+      <c r="D2671" s="40"/>
+    </row>
+    <row r="2672" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D2672" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="F2:P2"/>
-    <mergeCell ref="A8:XFD8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65501:F65508 F131037:F131044 F196573:F196580 F262109:F262116 F327645:F327652 F393181:F393188 F458717:F458724 F524253:F524260 F589789:F589796 F655325:F655332 F720861:F720868 F786397:F786404 F851933:F851940 F917469:F917476 F983005:F983012 F65493 F131029 F196565 F262101 F327637 F393173 F458709 F524245 F589781 F655317 F720853 F786389 F851925 F917461 F982997 F65495:F65499 F131031:F131035 F196567:F196571 F262103:F262107 F327639:F327643 F393175:F393179 F458711:F458715 F524247:F524251 F589783:F589787 F655319:F655323 F720855:F720859 F786391:F786395 F851927:F851931 F917463:F917467 F982999:F983003 F65510:F65514 F131046:F131050 F196582:F196586 F262118:F262122 F327654:F327658 F393190:F393194 F458726:F458730 F524262:F524266 F589798:F589802 F655334:F655338 F720870:F720874 F786406:F786410 F851942:F851946 F917478:F917482 F983014:F983018 F65516:F65518 F131052:F131054 F196588:F196590 F262124:F262126 F327660:F327662 F393196:F393198 F458732:F458734 F524268:F524270 F589804:F589806 F655340:F655342 F720876:F720878 F786412:F786414 F851948:F851950 F917484:F917486 F983020:F983022 F65520:F65523 F131056:F131059 F196592:F196595 F262128:F262131 F327664:F327667 F393200:F393203 F458736:F458739 F524272:F524275 F589808:F589811 F655344:F655347 F720880:F720883 F786416:F786419 F851952:F851955 F917488:F917491 F983024:F983027">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65502:F65509 F131038:F131045 F196574:F196581 F262110:F262117 F327646:F327653 F393182:F393189 F458718:F458725 F524254:F524261 F589790:F589797 F655326:F655333 F720862:F720869 F786398:F786405 F851934:F851941 F917470:F917477 F983006:F983013 F65494 F131030 F196566 F262102 F327638 F393174 F458710 F524246 F589782 F655318 F720854 F786390 F851926 F917462 F982998 F65496:F65500 F131032:F131036 F196568:F196572 F262104:F262108 F327640:F327644 F393176:F393180 F458712:F458716 F524248:F524252 F589784:F589788 F655320:F655324 F720856:F720860 F786392:F786396 F851928:F851932 F917464:F917468 F983000:F983004 F65511:F65515 F131047:F131051 F196583:F196587 F262119:F262123 F327655:F327659 F393191:F393195 F458727:F458731 F524263:F524267 F589799:F589803 F655335:F655339 F720871:F720875 F786407:F786411 F851943:F851947 F917479:F917483 F983015:F983019 F65517:F65519 F131053:F131055 F196589:F196591 F262125:F262127 F327661:F327663 F393197:F393199 F458733:F458735 F524269:F524271 F589805:F589807 F655341:F655343 F720877:F720879 F786413:F786415 F851949:F851951 F917485:F917487 F983021:F983023 F65521:F65524 F131057:F131060 F196593:F196596 F262129:F262132 F327665:F327668 F393201:F393204 F458737:F458740 F524273:F524276 F589809:F589812 F655345:F655348 F720881:F720884 F786417:F786420 F851953:F851956 F917489:F917492 F983025:F983028">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>

--- a/тесткейсы.xlsx
+++ b/тесткейсы.xlsx
@@ -173,9 +173,6 @@
     <t>Перейти на форму "Список проетов"</t>
   </si>
   <si>
-    <t>Проект удаляется, список проетов обновляется</t>
-  </si>
-  <si>
     <t>Проект удалится, будет показан пустой список проектов</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>Проект удаляется, список проетов обновляется, список задач остается неизменным</t>
+  </si>
+  <si>
+    <t>Проект удаляется, список проектов обновляется</t>
   </si>
 </sst>
 </file>
@@ -921,11 +921,11 @@
   </sheetPr>
   <dimension ref="A1:P2672"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="82" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="82" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -1068,7 +1068,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="35"/>
@@ -1096,7 +1096,7 @@
         <v>44</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="35"/>
@@ -1115,7 +1115,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>42</v>
@@ -1124,7 +1124,7 @@
         <v>45</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="35"/>
@@ -1140,10 +1140,10 @@
     </row>
     <row r="8" spans="1:16" s="32" customFormat="1" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>40</v>
@@ -1152,7 +1152,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="35"/>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="9" spans="1:16" s="32" customFormat="1" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A9" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>40</v>
@@ -1180,7 +1180,7 @@
         <v>43</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="35"/>

--- a/тесткейсы.xlsx
+++ b/тесткейсы.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XIAOMi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bsu-testing-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>V1.0</t>
   </si>
@@ -160,44 +160,16 @@
     <t>Список проектов пуст</t>
   </si>
   <si>
-    <t>1. Перейти на форму "Список проетов"
-2. На форме выбрать один из проетов
-3. Нажать на кнопку удаления проета</t>
-  </si>
-  <si>
-    <t>1. Перейти на форму "Список проетов"
-2. На форме выбрать проект
-3. Нажать на кнопку удаления проета</t>
-  </si>
-  <si>
     <t>Перейти на форму "Список проетов"</t>
   </si>
   <si>
     <t>Проект удалится, будет показан пустой список проектов</t>
   </si>
   <si>
-    <t>Удаление невозможно, показан пустой список проетов</t>
-  </si>
-  <si>
     <t>1.4</t>
   </si>
   <si>
-    <t>Не изменение сотрудников при удалении проета</t>
-  </si>
-  <si>
-    <t>Удаление проета</t>
-  </si>
-  <si>
-    <t>Проект удаляется, список проетов обновляется, список сотрудников остается неизменным</t>
-  </si>
-  <si>
     <t>1.5</t>
-  </si>
-  <si>
-    <t>Не изменение задач при удалении проета</t>
-  </si>
-  <si>
-    <t>Проект удаляется, список проетов обновляется, список задач остается неизменным</t>
   </si>
   <si>
     <t>Проект удаляется, список проектов обновляется</t>
@@ -210,9 +182,6 @@
   </si>
   <si>
     <t>2.4</t>
-  </si>
-  <si>
-    <t>Отображение удаленного сотрудника в его задаче</t>
   </si>
   <si>
     <t>Сотрудник прикреплен к задаче</t>
@@ -232,6 +201,55 @@
   </si>
   <si>
     <t>issue №5</t>
+  </si>
+  <si>
+    <t>Попытка удаления сотрудника из пустого списка</t>
+  </si>
+  <si>
+    <t>Попытка удаления проекта из пустого списка</t>
+  </si>
+  <si>
+    <t>1. Перейти на форму "Список проектов"
+2. На форме выбрать один из проектов
+3. Нажать на кнопку удаления проекта</t>
+  </si>
+  <si>
+    <t>1. Перейти на форму "Список проектов"
+2. На форме выбрать проект
+3. Нажать на кнопку удаления проекта</t>
+  </si>
+  <si>
+    <t>Удаление невозможно, показан пустой список проектов</t>
+  </si>
+  <si>
+    <t>Проверка на неизменность сотрудников при удалении проекта</t>
+  </si>
+  <si>
+    <t>Проверка на неизменность задач при удалении проекта</t>
+  </si>
+  <si>
+    <t>Отображение удаленного сотрудника, прикрепленного к задаче</t>
+  </si>
+  <si>
+    <t>1. Перейти на форму "Список проектов"
+2. На форме выбрать один из проектов
+3. Нажать на кнопку удаления проекта
+4. Перейти на форму "Список задач"</t>
+  </si>
+  <si>
+    <t>Задачи на форме "Список задач" остаются неизменными</t>
+  </si>
+  <si>
+    <t>Существует список проектов и сотрудников, свазанных с проектами</t>
+  </si>
+  <si>
+    <t>1. Перейти на форму "Список проектов"
+2. На форме выбрать один из проектов
+3. Нажать на кнопку удаления проекта
+4. Перейти на форму "Список сотрудников"</t>
+  </si>
+  <si>
+    <t>Сотрудники на форме "Список сотрудников" остаются неизменными</t>
   </si>
 </sst>
 </file>
@@ -626,12 +644,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -652,6 +664,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -999,7 +1017,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -1042,19 +1060,19 @@
       <c r="C2" s="5"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="45"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="52"/>
     </row>
     <row r="3" spans="1:16" s="20" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
@@ -1139,13 +1157,13 @@
         <v>40</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
-      <c r="F5" s="47" t="s">
-        <v>56</v>
+      <c r="F5" s="45" t="s">
+        <v>48</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
@@ -1169,13 +1187,13 @@
         <v>41</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>57</v>
+      <c r="F6" s="46" t="s">
+        <v>49</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
@@ -1193,19 +1211,19 @@
         <v>22</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
-      <c r="F7" s="49" t="s">
-        <v>57</v>
+      <c r="F7" s="47" t="s">
+        <v>49</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
@@ -1218,24 +1236,24 @@
       <c r="O7" s="33"/>
       <c r="P7" s="33"/>
     </row>
-    <row r="8" spans="1:16" s="30" customFormat="1" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" s="30" customFormat="1" ht="62" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A8" s="43" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
-      <c r="F8" s="50" t="s">
-        <v>56</v>
+      <c r="F8" s="48" t="s">
+        <v>48</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
@@ -1248,24 +1266,24 @@
       <c r="O8" s="33"/>
       <c r="P8" s="33"/>
     </row>
-    <row r="9" spans="1:16" s="30" customFormat="1" ht="46.5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" s="30" customFormat="1" ht="62" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
-      <c r="F9" s="46" t="s">
-        <v>64</v>
+      <c r="F9" s="44" t="s">
+        <v>55</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
@@ -1316,8 +1334,8 @@
       <c r="E11" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="52" t="s">
-        <v>56</v>
+      <c r="F11" s="50" t="s">
+        <v>48</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
@@ -1346,8 +1364,8 @@
       <c r="E12" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="51" t="s">
-        <v>57</v>
+      <c r="F12" s="49" t="s">
+        <v>49</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
@@ -1360,12 +1378,12 @@
       <c r="O12" s="33"/>
       <c r="P12" s="33"/>
     </row>
-    <row r="13" spans="1:16" s="30" customFormat="1" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="30" customFormat="1" ht="31" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>35</v>
@@ -1376,8 +1394,8 @@
       <c r="E13" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="51" t="s">
-        <v>57</v>
+      <c r="F13" s="49" t="s">
+        <v>49</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
@@ -1392,22 +1410,22 @@
     </row>
     <row r="14" spans="1:16" s="30" customFormat="1" ht="93" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A14" s="43" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
-      <c r="F14" s="52" t="s">
-        <v>56</v>
+      <c r="F14" s="50" t="s">
+        <v>48</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
